--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/15/seed4/result_data_KNN.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.917999999999999</v>
+        <v>-8.036</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -553,13 +553,13 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.968</v>
+        <v>-12.961</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.92</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.862</v>
+        <v>5.737</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.54</v>
+        <v>16.195</v>
       </c>
     </row>
     <row r="11">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.372</v>
+        <v>-11.473</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.952</v>
+        <v>16.703</v>
       </c>
     </row>
     <row r="14">
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.54</v>
+        <v>-12.845</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.448000000000002</v>
+        <v>-8.463000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.686</v>
+        <v>16.736</v>
       </c>
     </row>
     <row r="17">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>4.61</v>
+        <v>4.853</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>6.962000000000001</v>
+        <v>7.125</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.204</v>
+        <v>15.951</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.296</v>
+        <v>16.788</v>
       </c>
     </row>
     <row r="25">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.192</v>
+        <v>-12.467</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.966</v>
+        <v>5.747999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.49</v>
+        <v>-13.538</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.412</v>
+        <v>-12.24</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.419999999999999</v>
+        <v>-7.342000000000001</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1026,13 +1026,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.257999999999999</v>
+        <v>9.239000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.63</v>
+        <v>-7.826000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.832</v>
+        <v>-13.151</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-14.278</v>
+        <v>-13.616</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.872</v>
+        <v>-7.714</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.284</v>
+        <v>16.532</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.961999999999999</v>
+        <v>-7.598999999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.542</v>
+        <v>-7.388</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,10 +1236,10 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.359999999999999</v>
+        <v>-7.52</v>
       </c>
       <c r="E47" t="n">
-        <v>16.94600000000001</v>
+        <v>16.896</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.274</v>
+        <v>17.206</v>
       </c>
     </row>
     <row r="49">
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.364</v>
+        <v>-12.613</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.641999999999999</v>
+        <v>-7.626</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,13 +1318,13 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.418</v>
+        <v>-11.754</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.258</v>
+        <v>17.461</v>
       </c>
     </row>
     <row r="53">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.016</v>
+        <v>-13.65</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.958</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="57">
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.51</v>
+        <v>-7.969000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.109999999999999</v>
+        <v>-7.664999999999999</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.47</v>
+        <v>5.659999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.252</v>
+        <v>-10.919</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.216</v>
+        <v>-13.014</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.992999999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.787999999999999</v>
+        <v>6.723999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.708</v>
+        <v>7.85</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.104</v>
+        <v>-13.561</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.422</v>
+        <v>5.425</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.292</v>
+        <v>5.127999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.394</v>
+        <v>-13.527</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.646</v>
+        <v>16.856</v>
       </c>
     </row>
     <row r="85">
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.741999999999999</v>
+        <v>-7.895</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.728</v>
+        <v>5.875999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.895999999999999</v>
+        <v>-7.57</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.686</v>
+        <v>16.569</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.93</v>
+        <v>16.821</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.746</v>
+        <v>-13.663</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
